--- a/Bibsam_tidskriftslistor/scifree_data_acm.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -823,9 +823,6 @@
   </si>
   <si>
     <t>GetMobile: Mobile Computing and Communications</t>
-  </si>
-  <si>
-    <t>Proceedings of the ACM on Interactive, Mobile, Wearable and Ubiquitous Technologies</t>
   </si>
   <si>
     <t>1530-9304</t>
@@ -964,7 +961,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -996,8 +1003,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G83" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G78"/>
   <sortState ref="A2:G83">
     <sortCondition ref="D1:D83"/>
   </sortState>
@@ -1277,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1286,7 +1293,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="109.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -1470,7 +1477,7 @@
         <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -1832,7 +1839,7 @@
         <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -2358,7 +2365,7 @@
         <v>233</v>
       </c>
       <c r="F47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G47" t="s">
         <v>7</v>
@@ -2375,7 +2382,7 @@
         <v>234</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
         <v>7</v>
@@ -2386,13 +2393,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
         <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -2429,16 +2436,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
         <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -2464,7 +2471,7 @@
         <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -2487,7 +2494,7 @@
         <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G53" t="s">
         <v>7</v>
@@ -2518,16 +2525,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
         <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2547,7 +2554,7 @@
         <v>235</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
         <v>7</v>
@@ -2558,16 +2565,16 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
         <v>267</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -2739,13 +2746,13 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2759,13 +2766,13 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -2799,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -2819,13 +2826,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -2839,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -2859,16 +2866,16 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="G71" t="s">
         <v>7</v>
@@ -2878,14 +2885,14 @@
       <c r="A72" t="s">
         <v>9</v>
       </c>
-      <c r="B72" t="s">
-        <v>123</v>
+      <c r="C72" t="s">
+        <v>291</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -2899,13 +2906,16 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>245</v>
+      </c>
+      <c r="C73" t="s">
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -2919,13 +2929,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -2939,16 +2949,19 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>270</v>
+      </c>
+      <c r="C75" t="s">
+        <v>276</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G75" t="s">
         <v>7</v>
@@ -2958,14 +2971,14 @@
       <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="B76" t="s">
-        <v>125</v>
+      <c r="C76" t="s">
+        <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -2978,14 +2991,14 @@
       <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" t="s">
-        <v>292</v>
+      <c r="B77" t="s">
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -2999,16 +3012,16 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -3017,113 +3030,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" t="s">
-        <v>265</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" t="s">
-        <v>277</v>
-      </c>
-      <c r="D80" t="s">
-        <v>264</v>
-      </c>
-      <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="F80" t="s">
-        <v>297</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>289</v>
-      </c>
-      <c r="D81" t="s">
-        <v>285</v>
-      </c>
-      <c r="E81" t="s">
-        <v>293</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" t="s">
-        <v>258</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>247</v>
-      </c>
-      <c r="C83" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" t="s">
-        <v>259</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/scifree_data_acm.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_acm.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2B043A277E5AA59620393733AA874B555B69A73B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95DFCC8-6A1A-4AA6-BAAE-CEFB3DD87832}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="305">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -189,9 +190,6 @@
     <t>Digital Threats: Resarch and Practice (DTRAP)</t>
   </si>
   <si>
-    <t>Journal of Computing Sciences in Colleges</t>
-  </si>
-  <si>
     <t>Journal of Data and Information Quality (JDIQ)</t>
   </si>
   <si>
@@ -201,9 +199,6 @@
     <t>Journal of the ACM (JACM)</t>
   </si>
   <si>
-    <t>Journal of Usability Studies</t>
-  </si>
-  <si>
     <t>Journal on Computing and Cultural Heritage (JOCCH)</t>
   </si>
   <si>
@@ -222,15 +217,6 @@
     <t>Proceedings of the ACM on Programming Languages</t>
   </si>
   <si>
-    <t>ACM/IMS Transactions on Data Science</t>
-  </si>
-  <si>
-    <t>Collective Intelligence (First Issue Spring 2022)</t>
-  </si>
-  <si>
-    <t>Formal Aspects of Computing (First Issue Spring 2022)</t>
-  </si>
-  <si>
     <t>1557-7341</t>
   </si>
   <si>
@@ -369,9 +355,6 @@
     <t>2576-5337</t>
   </si>
   <si>
-    <t>1937-4763</t>
-  </si>
-  <si>
     <t>1936-1963</t>
   </si>
   <si>
@@ -531,24 +514,15 @@
     <t>2692-1626</t>
   </si>
   <si>
-    <t>1937-4771</t>
-  </si>
-  <si>
     <t>1936-1955</t>
   </si>
   <si>
     <t>0004-5411</t>
   </si>
   <si>
-    <t>1931-3357</t>
-  </si>
-  <si>
     <t>1556-4673</t>
   </si>
   <si>
-    <t>2691-1922</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/loi/csur</t>
   </si>
   <si>
@@ -687,9 +661,6 @@
     <t>https://dl.acm.org/loi/dtrap</t>
   </si>
   <si>
-    <t>https://dl.acm.org/loi/jcsc</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/loi/jdiq</t>
   </si>
   <si>
@@ -699,9 +670,6 @@
     <t>https://dl.acm.org/loi/jacm</t>
   </si>
   <si>
-    <t>https://dl.acm.org/loi/jus</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/loi/jocch</t>
   </si>
   <si>
@@ -720,12 +688,6 @@
     <t>https://dl.acm.org/loi/pacmpl</t>
   </si>
   <si>
-    <t>https://dl.acm.org/loi/tds</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/journal/cola</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/journal/fac</t>
   </si>
   <si>
@@ -807,15 +769,6 @@
     <t>https://dl.acm.org/loi/interactions</t>
   </si>
   <si>
-    <t>Evolutionary Computation</t>
-  </si>
-  <si>
-    <t>Computational Linguistics</t>
-  </si>
-  <si>
-    <t>The Journal of Machine Learning Research</t>
-  </si>
-  <si>
     <t>SIGSPATIAL Special</t>
   </si>
   <si>
@@ -825,15 +778,6 @@
     <t>GetMobile: Mobile Computing and Communications</t>
   </si>
   <si>
-    <t>1530-9304</t>
-  </si>
-  <si>
-    <t>1530-9312</t>
-  </si>
-  <si>
-    <t>1533-7928</t>
-  </si>
-  <si>
     <t>1946-7729</t>
   </si>
   <si>
@@ -843,27 +787,9 @@
     <t>2375-0537</t>
   </si>
   <si>
-    <t>1063-6560</t>
-  </si>
-  <si>
-    <t>0891-2017</t>
-  </si>
-  <si>
-    <t>1532-4435</t>
-  </si>
-  <si>
     <t>2375-0529</t>
   </si>
   <si>
-    <t>https://dl.acm.org/loi/evol</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/loi/coli</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/loi/jmlr</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/loi/sigspatial</t>
   </si>
   <si>
@@ -873,59 +799,150 @@
     <t>https://dl.acm.org/loi/sigmobile-getmobile</t>
   </si>
   <si>
-    <t>The VLDB Journal ΓÇö The International Journal on Very Large Data Bases</t>
-  </si>
-  <si>
-    <t>Linux Journal</t>
-  </si>
-  <si>
-    <t>Personal and Ubiquitous Computing</t>
-  </si>
-  <si>
     <t>Proceedings of the VLDB Endowment</t>
   </si>
   <si>
-    <t>1066-8888</t>
-  </si>
-  <si>
-    <t>1075-3583</t>
-  </si>
-  <si>
-    <t>1617-4909</t>
-  </si>
-  <si>
     <t>2150-8097</t>
   </si>
   <si>
-    <t>https://dl.acm.org/loi/vldb</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/loi/linux</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/loi/puc</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/loi/pvldb</t>
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>1433-299X</t>
+  </si>
+  <si>
+    <t>0934-5043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formal Aspects of Computing </t>
+  </si>
+  <si>
+    <t>2831-3194</t>
+  </si>
+  <si>
+    <t>ACM / IMS Journal of Data Science</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/jds</t>
+  </si>
+  <si>
+    <t>1932-2240</t>
+  </si>
+  <si>
+    <t>ACM Communications in Computer Algebra</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/sigsam-cca</t>
+  </si>
+  <si>
+    <t>2833-0528</t>
+  </si>
+  <si>
+    <t>ACM Journal on Autonomous Transportation Systems</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/jats</t>
+  </si>
+  <si>
+    <t>2834-5533</t>
+  </si>
+  <si>
+    <t>ACM Journal on Computing and Sustainable Societies</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/acmjcss</t>
+  </si>
+  <si>
+    <t>2832-0565</t>
+  </si>
+  <si>
+    <t>ACM Journal on Responsible Computing</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/jrc</t>
+  </si>
+  <si>
+    <t>2836-8924</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Probabilistic Machine Learning</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/journal/topml</t>
+  </si>
+  <si>
+    <t>2770-6699</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Recommender Systems</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/tors</t>
+  </si>
+  <si>
+    <t>2769-6480</t>
+  </si>
+  <si>
+    <t>Distributed Ledger Technologies: Research and Practice</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/dlt</t>
+  </si>
+  <si>
+    <t>2832-5516</t>
+  </si>
+  <si>
+    <t>Games: Research and Practice</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/games</t>
+  </si>
+  <si>
+    <t>2836-6573</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM on Management of Data</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/pacmmod</t>
+  </si>
+  <si>
+    <t>2834-5509</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM on Networking</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/pacmnet</t>
+  </si>
+  <si>
+    <t>2994-970X</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM on Software Engineering</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/pacmse</t>
+  </si>
+  <si>
+    <t>2837-0848</t>
+  </si>
+  <si>
+    <t>Reproducibility Retro!</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/loi/eigrep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -953,43 +970,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1003,19 +990,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G78" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G78"/>
-  <sortState ref="A2:G83">
-    <sortCondition ref="D1:D83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E71E7E3-48AC-48E5-B6E2-9BF4D7766F23}" name="Table2" displayName="Table2" ref="A1:G81" totalsRowShown="0">
+  <autoFilter ref="A1:G81" xr:uid="{7E71E7E3-48AC-48E5-B6E2-9BF4D7766F23}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
+    <sortCondition ref="D1:D81"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{17EE20B4-D8E6-4FA7-A90F-0F4002745591}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{31A6968F-4329-4B66-8ABB-42C2275EE9D5}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{CD1EEDCF-B32B-4F3A-AD12-462FFE64E7B3}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{655300E9-C230-44D0-9852-9F3F3D516969}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{39CE6508-4018-4EA5-AAF5-9BB53F9149CB}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{FA46763B-7845-4512-B0DA-E155E12F80D2}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{554C8457-1B69-4562-A7FD-4D53A264FCB4}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1283,42 +1270,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BA799D-7EAF-4CC7-9270-9B34940682D2}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="109.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1327,19 +1316,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1350,16 +1336,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1373,16 +1356,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1395,17 +1378,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
+      <c r="B5" t="s">
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1418,17 +1401,14 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
+      <c r="B6" t="s">
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1442,16 +1422,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1464,20 +1441,20 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
+      <c r="B8" t="s">
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -1487,17 +1464,14 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
+      <c r="B9" t="s">
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1511,16 +1485,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1533,17 +1507,17 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1556,17 +1530,17 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>79</v>
+      <c r="B12" t="s">
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1579,20 +1553,20 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -1602,17 +1576,17 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>82</v>
+      <c r="B14" t="s">
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1626,13 +1600,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1646,16 +1623,16 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1669,16 +1646,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1692,16 +1669,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1715,16 +1692,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1738,16 +1715,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1760,17 +1734,17 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+      <c r="B21" t="s">
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1784,16 +1758,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1806,17 +1780,17 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>90</v>
+      <c r="B23" t="s">
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1829,17 +1803,20 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -1850,16 +1827,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1872,17 +1849,17 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
+      <c r="B26" t="s">
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1896,16 +1873,16 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1919,16 +1896,16 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1942,19 +1919,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -1965,16 +1939,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1988,16 +1962,16 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -2011,16 +1985,16 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -2034,16 +2008,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -2057,16 +2031,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -2080,16 +2054,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2103,16 +2077,16 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2126,16 +2100,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -2149,16 +2123,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2171,17 +2145,17 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>80</v>
+      <c r="B39" t="s">
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -2195,16 +2169,16 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -2218,16 +2192,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2241,16 +2215,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2264,19 +2238,16 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G43" t="s">
         <v>7</v>
@@ -2287,16 +2258,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2310,16 +2281,16 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2333,16 +2304,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>285</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2355,17 +2323,20 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
         <v>7</v>
@@ -2375,14 +2346,20 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
         <v>7</v>
@@ -2393,13 +2370,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -2413,16 +2393,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -2436,16 +2416,16 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -2459,19 +2439,19 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
         <v>7</v>
@@ -2482,19 +2462,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
         <v>7</v>
@@ -2505,13 +2485,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -2525,16 +2505,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2547,14 +2527,20 @@
       <c r="A56" t="s">
         <v>9</v>
       </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G56" t="s">
         <v>7</v>
@@ -2565,19 +2551,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
@@ -2588,16 +2574,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2611,16 +2594,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -2634,19 +2614,19 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
         <v>7</v>
@@ -2657,16 +2637,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -2680,16 +2657,16 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2702,14 +2679,17 @@
       <c r="A63" t="s">
         <v>9</v>
       </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -2723,16 +2703,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -2745,14 +2725,17 @@
       <c r="A65" t="s">
         <v>9</v>
       </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2765,14 +2748,17 @@
       <c r="A66" t="s">
         <v>9</v>
       </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -2786,13 +2772,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -2806,13 +2795,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -2826,13 +2815,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -2846,13 +2835,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -2866,16 +2855,16 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
         <v>7</v>
@@ -2885,14 +2874,14 @@
       <c r="A72" t="s">
         <v>9</v>
       </c>
-      <c r="C72" t="s">
-        <v>291</v>
+      <c r="B72" t="s">
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -2906,16 +2895,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
-      </c>
-      <c r="C73" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -2929,16 +2915,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G74" t="s">
         <v>7</v>
@@ -2949,19 +2935,16 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
-      </c>
-      <c r="C75" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="E75" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G75" t="s">
         <v>7</v>
@@ -2972,13 +2955,13 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -2992,13 +2975,16 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -3012,32 +2998,88 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="D78" t="s">
+        <v>303</v>
+      </c>
+      <c r="E78" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" t="s">
         <v>240</v>
       </c>
-      <c r="E78" t="s">
-        <v>259</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="D81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>